--- a/biology/Botanique/Lycopus_uniflorus/Lycopus_uniflorus.xlsx
+++ b/biology/Botanique/Lycopus_uniflorus/Lycopus_uniflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lycopus uniflorus est une espèce de plantes à fleurs de la famille des Lamiaceae originaire d'une grande partie de l'Amérique du Nord (Canada, États-Unis) et de l'Asie de l'Est (Chine, Japon, Corée, Extrême-Orient russe)[réf. nécessaire].
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopus uniflorus est une plante herbacée vivace à rhizome, de petite taille (0,3 m) croissant isolée ou en petite colonies.
 </t>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 octobre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 octobre 2021) :
 variété Lycopus uniflorus var. macrophyllus Farw.
 variété Lycopus uniflorus var. membranacea Farw.
 variété Lycopus uniflorus var. ovatus Fernald &amp; H. St. John
